--- a/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9157E-EBB8-4765-90DC-D3B6EDFAD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1285D7-96C8-49D0-8CC6-A96B22D8D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1285D7-96C8-49D0-8CC6-A96B22D8D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0391-8EFE-4B26-A984-A095183C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>看完MV苏醒后好感,选择涂凌</t>
+  </si>
+  <si>
+    <t>11;5</t>
+  </si>
+  <si>
+    <t>指正冰酒手套</t>
   </si>
 </sst>
 </file>
@@ -216,18 +222,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -303,10 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -636,10 +642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,6 +1103,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21001</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/017_AVG中的服务器行为.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0391-8EFE-4B26-A984-A095183C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D104D0-F2D6-4717-A363-C44BF4A2433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1为好感度提升，对应参数为小队成员id;提升值|小队成员id;提升值</t>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -185,6 +184,18 @@
   </si>
   <si>
     <t>指正冰酒手套</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[1]</t>
+  </si>
+  <si>
+    <t>1:{ID:Role}</t>
+  </si>
+  <si>
+    <t>ID:Quest</t>
   </si>
 </sst>
 </file>
@@ -204,7 +215,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -212,38 +222,33 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -642,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -716,93 +730,88 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <f>B4*100+COUNTIF($B$4:B4,B4)</f>
-        <v>101</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <f>B5*100+COUNTIF($B$4:B5,B5)</f>
-        <v>201</v>
+        <f>B5*100+COUNTIF($B$5:B5,B5)</f>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f>B6*100+COUNTIF($B$4:B6,B6)</f>
-        <v>301</v>
+        <f>B6*100+COUNTIF($B$5:B6,B6)</f>
+        <v>201</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
-        <f>B7*100+COUNTIF($B$4:B7,B7)</f>
-        <v>401</v>
+        <f>B7*100+COUNTIF($B$5:B7,B7)</f>
+        <v>301</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f>B8*100+COUNTIF($B$4:B8,B8)</f>
-        <v>402</v>
+        <f>B8*100+COUNTIF($B$5:B8,B8)</f>
+        <v>401</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -811,19 +820,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f>B9*100+COUNTIF($B$4:B9,B9)</f>
-        <v>403</v>
+        <f>B9*100+COUNTIF($B$5:B9,B9)</f>
+        <v>402</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -832,37 +841,40 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f>B10*100+COUNTIF($B$4:B10,B10)</f>
-        <v>501</v>
+        <f>B10*100+COUNTIF($B$5:B10,B10)</f>
+        <v>403</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f>B11*100+COUNTIF($B$4:B11,B11)</f>
-        <v>502</v>
+        <f>B11*100+COUNTIF($B$5:B11,B11)</f>
+        <v>501</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -879,17 +891,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f>B12*100+COUNTIF($B$4:B12,B12)</f>
-        <v>601</v>
+        <f>B12*100+COUNTIF($B$5:B12,B12)</f>
+        <v>502</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -897,8 +909,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f>B13*100+COUNTIF($B$4:B13,B13)</f>
-        <v>602</v>
+        <f>B13*100+COUNTIF($B$5:B13,B13)</f>
+        <v>601</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -907,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -915,8 +927,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f>B14*100+COUNTIF($B$4:B14,B14)</f>
-        <v>603</v>
+        <f>B14*100+COUNTIF($B$5:B14,B14)</f>
+        <v>602</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -925,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -933,8 +945,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f>B15*100+COUNTIF($B$4:B15,B15)</f>
-        <v>604</v>
+        <f>B15*100+COUNTIF($B$5:B15,B15)</f>
+        <v>603</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -943,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -951,8 +963,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f>B16*100+COUNTIF($B$4:B16,B16)</f>
-        <v>605</v>
+        <f>B16*100+COUNTIF($B$5:B16,B16)</f>
+        <v>604</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -961,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -969,8 +981,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f>B17*100+COUNTIF($B$4:B17,B17)</f>
-        <v>606</v>
+        <f>B17*100+COUNTIF($B$5:B17,B17)</f>
+        <v>605</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -979,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -987,8 +999,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f>B18*100+COUNTIF($B$4:B18,B18)</f>
-        <v>607</v>
+        <f>B18*100+COUNTIF($B$5:B18,B18)</f>
+        <v>606</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -997,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -1005,67 +1017,65 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>701</v>
+        <f>B19*100+COUNTIF($B$5:B19,B19)</f>
+        <v>607</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>801</v>
+        <v>701</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>901</v>
+        <v>801</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1074,18 +1084,18 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -1094,32 +1104,52 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
+        <v>903</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>21001</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>42</v>
       </c>
     </row>
